--- a/biology/Médecine/Phénothiazine/Phénothiazine.xlsx
+++ b/biology/Médecine/Phénothiazine/Phénothiazine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ph%C3%A9nothiazine</t>
+          <t>Phénothiazine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La phénothiazine est un composé chimique qui a donné son nom à la classe pharmacologique des phénothiazines.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ph%C3%A9nothiazine</t>
+          <t>Phénothiazine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La phénothiazine a été utilisée comme insecticide puis comme anthelminthique (chez l'animal et l'Humain), synthétisé initialement en 1883 à partir de bleu de méthylène, découvert sept ans plus tôt par Paul Ehrlich.
 De cette molécule dérivent plusieurs médicaments neuroleptiques.
-C'est aussi l'un des additifs de certaines huiles utilisées dans le domaine de l'aéronautique[4]. 
+C'est aussi l'un des additifs de certaines huiles utilisées dans le domaine de l'aéronautique. 
 </t>
         </is>
       </c>
